--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3614.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3614.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.28600488361497</v>
+        <v>1.641980290412903</v>
       </c>
       <c r="B1">
-        <v>2.344316897807797</v>
+        <v>2.887482166290283</v>
       </c>
       <c r="C1">
-        <v>3.33720364432441</v>
+        <v>3.715534210205078</v>
       </c>
       <c r="D1">
-        <v>3.089675627668079</v>
+        <v>1.443675398826599</v>
       </c>
       <c r="E1">
-        <v>0.9128658042087175</v>
+        <v>0.9655657410621643</v>
       </c>
     </row>
   </sheetData>
